--- a/anki sample.xlsx
+++ b/anki sample.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,103 +25,975 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>The star at the center of our solar system</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>A small domesticated carnivorous mammal</t>
-  </si>
-  <si>
-    <t>Mount Everest</t>
-  </si>
-  <si>
-    <t>The highest mountain on Earth</t>
-  </si>
-  <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>Chemical formula for water</t>
-  </si>
-  <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
-    <t>A programming language for web development</t>
-  </si>
-  <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>The closest planet to the Sun</t>
-  </si>
-  <si>
-    <t>Photosynthesis</t>
-  </si>
-  <si>
-    <t>Process by which plants make food using sunlight</t>
-  </si>
-  <si>
-    <t>Beethoven</t>
-  </si>
-  <si>
-    <t>Famous classical composer</t>
-  </si>
-  <si>
-    <t>Oxygen</t>
-  </si>
-  <si>
-    <t>Gas essential for human respiration</t>
-  </si>
-  <si>
-    <t>Eiffel Tower</t>
-  </si>
-  <si>
-    <t>Iconic landmark in Paris</t>
-  </si>
-  <si>
-    <t>Gravity</t>
-  </si>
-  <si>
-    <t>Force that attracts objects toward Earth</t>
-  </si>
-  <si>
-    <t>Bitcoin</t>
-  </si>
-  <si>
-    <t>A type of cryptocurrency</t>
-  </si>
-  <si>
-    <t>Shakespeare</t>
-  </si>
-  <si>
-    <t>Renowned English playwright</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>The southernmost continent</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>A global network of computers</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="268">
+  <si>
+    <t>What is React?</t>
+  </si>
+  <si>
+    <t>A JavaScript library for building user interfaces</t>
+  </si>
+  <si>
+    <t>What is a Single Page Application (SPA)?</t>
+  </si>
+  <si>
+    <t>A web application that dynamically rewrites the current page rather than loading entire new pages from a server</t>
+  </si>
+  <si>
+    <t>What is the Virtual DOM?</t>
+  </si>
+  <si>
+    <t>A programming concept where a virtual representation of the UI is kept in memory and synced with the real DOM</t>
+  </si>
+  <si>
+    <t>What is the front-end?</t>
+  </si>
+  <si>
+    <t>The part of a web application that interacts with users</t>
+  </si>
+  <si>
+    <t>What is the back-end?</t>
+  </si>
+  <si>
+    <t>The server-side of a web application that handles logic, database, and server configuration</t>
+  </si>
+  <si>
+    <t>What is React Native?</t>
+  </si>
+  <si>
+    <t>A framework to build native mobile apps using React</t>
+  </si>
+  <si>
+    <t>What are Hooks in React?</t>
+  </si>
+  <si>
+    <t>Functions that let you use state and other React features without writing a class</t>
+  </si>
+  <si>
+    <t>What is JSX?</t>
+  </si>
+  <si>
+    <t>A syntax extension for JavaScript used in React to describe UI structure</t>
+  </si>
+  <si>
+    <t>What is Redux?</t>
+  </si>
+  <si>
+    <t>A state management library often used with React</t>
+  </si>
+  <si>
+    <t>What is a Component in React?</t>
+  </si>
+  <si>
+    <t>Independent, reusable pieces of UI in a React application</t>
+  </si>
+  <si>
+    <t>What are Props in React?</t>
+  </si>
+  <si>
+    <t>Short for properties, used to pass data from parent to child components</t>
+  </si>
+  <si>
+    <t>What is State in React?</t>
+  </si>
+  <si>
+    <t>A built-in object in React used to contain data or information about the component</t>
+  </si>
+  <si>
+    <t>What is API Integration in React?</t>
+  </si>
+  <si>
+    <t>Connecting front-end React applications to external data sources</t>
+  </si>
+  <si>
+    <t>What is Form Handling in React?</t>
+  </si>
+  <si>
+    <t>Managing user input and form submission in React apps</t>
+  </si>
+  <si>
+    <t>What is Routing in React?</t>
+  </si>
+  <si>
+    <t>Navigating between different components/views in a single page application</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Why do we export and import components in React?           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To use a component defined in one file inside another file by importing it where needed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is the benefit of placing components in separate files?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It helps organize code and keeps the project manageable, especially in large applications. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What are the types of exports in React?                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Default export, named export, and multiple (named) exports.                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How does default export work?                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Used to export a single main component from a file. It is imported without curly braces. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How does named export work?                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Used to export multiple components; must be imported using curly braces.              </t>
+  </si>
+  <si>
+    <t>What is JSX in React?</t>
+  </si>
+  <si>
+    <t>JSX is a syntax extension for JavaScript that allows writing HTML-like code inside JavaScript files, which gets converted to React elements.</t>
+  </si>
+  <si>
+    <t>Why is JSX important in React?</t>
+  </si>
+  <si>
+    <t>JSX makes writing UI code easier and more readable. It plays a significant role in React’s popularity due to its expressive syntax.</t>
+  </si>
+  <si>
+    <t>What does JSX allow us to do?</t>
+  </si>
+  <si>
+    <t>It allows us to write HTML and JavaScript together, making the UI development seamless and intuitive.</t>
+  </si>
+  <si>
+    <t>Can we use React without JSX?</t>
+  </si>
+  <si>
+    <t>Yes, by using React.createElement manually, but it’s verbose and not recommended for production.</t>
+  </si>
+  <si>
+    <t>What is the difference between HTML and JSX?</t>
+  </si>
+  <si>
+    <t>JSX looks similar to HTML, but it has slight differences like `className` instead of `class`, and all tags must be closed properly.</t>
+  </si>
+  <si>
+    <t>Can we insert JavaScript expressions in JSX?</t>
+  </si>
+  <si>
+    <t>Yes, by using curly braces `{}` inside JSX to embed any valid JavaScript expression.</t>
+  </si>
+  <si>
+    <t>What are the three parameters in React.createElement?</t>
+  </si>
+  <si>
+    <t>Element type, props or attributes, and children (inner content).</t>
+  </si>
+  <si>
+    <t>What is the full form of JSX?</t>
+  </si>
+  <si>
+    <t>There is no official full form, but some interpret it as JavaScript XML or JavaScript Syntax Extension. Official docs just call it a "syntax extension."</t>
+  </si>
+  <si>
+    <t>Why is it recommended to use JSX instead of React.createElement directly?</t>
+  </si>
+  <si>
+    <t>JSX simplifies the syntax, reduces code verbosity, and improves code readability.</t>
+  </si>
+  <si>
+    <t>Is JSX mandatory in React projects?</t>
+  </si>
+  <si>
+    <t>No, but it's highly recommended for better development experience.</t>
+  </si>
+  <si>
+    <t>What is Vite?</t>
+  </si>
+  <si>
+    <t>A front-end build tool that provides a fast development server and optimized production builds.</t>
+  </si>
+  <si>
+    <t>Why use Vite with React?</t>
+  </si>
+  <si>
+    <t>Because it's faster than older tools like Create React App and is recommended in official docs.</t>
+  </si>
+  <si>
+    <t>What is the full form of LTS?</t>
+  </si>
+  <si>
+    <t>Long Term Support.</t>
+  </si>
+  <si>
+    <t>What is Node.js?</t>
+  </si>
+  <si>
+    <t>A JavaScript runtime that allows you to run JS code outside the browser.</t>
+  </si>
+  <si>
+    <t>What is npm?</t>
+  </si>
+  <si>
+    <t>Node Package Manager, used to manage packages/modules in JavaScript projects.</t>
+  </si>
+  <si>
+    <t>How to verify Node.js installation?</t>
+  </si>
+  <si>
+    <t>By running 'node -v' and 'npm -v' in the terminal.</t>
+  </si>
+  <si>
+    <t>What is VS Code?</t>
+  </si>
+  <si>
+    <t>A source-code editor developed by Microsoft, popular among developers.</t>
+  </si>
+  <si>
+    <t>What is the use of the command 'npm create vite@latest'?</t>
+  </si>
+  <si>
+    <t>It creates a new Vite-powered project setup.</t>
+  </si>
+  <si>
+    <t>What does 'code .' do in terminal?</t>
+  </si>
+  <si>
+    <t>Opens the current folder in Visual Studio Code.</t>
+  </si>
+  <si>
+    <t>What is the port 5173 used by Vite?</t>
+  </si>
+  <si>
+    <t>It's the default development server port for Vite.</t>
+  </si>
+  <si>
+    <t>Why is Vite fast?</t>
+  </si>
+  <si>
+    <t>Due to native ES modules, faster hot module replacement, and optimized builds.</t>
+  </si>
+  <si>
+    <t>What is a development build?</t>
+  </si>
+  <si>
+    <t>A version of the app for local development with full debugging support.</t>
+  </si>
+  <si>
+    <t>What is a production build?</t>
+  </si>
+  <si>
+    <t>An optimized and minified version of the app for deployment.</t>
+  </si>
+  <si>
+    <t>What are CSS Preprocessors?</t>
+  </si>
+  <si>
+    <t>Tools like SASS or LESS that add functionality to CSS.</t>
+  </si>
+  <si>
+    <t>What is a CSS Module?</t>
+  </si>
+  <si>
+    <t>A CSS file in which all class names and animation names are scoped locally by default.</t>
+  </si>
+  <si>
+    <t>How to install Node.js on Mac?</t>
+  </si>
+  <si>
+    <t>Download the installer from the official Node.js site and follow the setup steps.</t>
+  </si>
+  <si>
+    <t>What does LTS stand for in Node.js?</t>
+  </si>
+  <si>
+    <t>How to verify Node.js and npm installation on Mac?</t>
+  </si>
+  <si>
+    <t>Use the commands 'node -v' and 'npm -v' in a new terminal.</t>
+  </si>
+  <si>
+    <t>Why do Node and npm have different versions?</t>
+  </si>
+  <si>
+    <t>Because they are separate tools bundled together; their versioning is independent.</t>
+  </si>
+  <si>
+    <t>How to install VS Code on Mac?</t>
+  </si>
+  <si>
+    <t>Download it from the official VS Code site, then run the installer and follow instructions.</t>
+  </si>
+  <si>
+    <t>What is Vite used for?</t>
+  </si>
+  <si>
+    <t>It's a front-end tool used for fast project setup and building applications like React.</t>
+  </si>
+  <si>
+    <t>Why is Vite preferred over Parcel or CRA?</t>
+  </si>
+  <si>
+    <t>Vite is faster, more popular, and recommended in React’s official docs.</t>
+  </si>
+  <si>
+    <t>How to create a React project with Vite?</t>
+  </si>
+  <si>
+    <t>Run 'npm create vite@latest', choose React, then JavaScript or TypeScript.</t>
+  </si>
+  <si>
+    <t>What does the command 'npm install' do?</t>
+  </si>
+  <si>
+    <t>It installs all required dependencies listed in package.json.</t>
+  </si>
+  <si>
+    <t>How to start a Vite project?</t>
+  </si>
+  <si>
+    <t>Run 'npm run dev' after installing dependencies.</t>
+  </si>
+  <si>
+    <t>What is the purpose of 'code .' command?</t>
+  </si>
+  <si>
+    <t>It opens the current folder in Visual Studio Code.</t>
+  </si>
+  <si>
+    <t>What does the port 5173 represent in Vite?</t>
+  </si>
+  <si>
+    <t>It's a stylized way to represent 'VITE' using numbers resembling characters.</t>
+  </si>
+  <si>
+    <t>Why does Vite build faster?</t>
+  </si>
+  <si>
+    <t>It uses native ES modules and provides faster hot module replacement.</t>
+  </si>
+  <si>
+    <t>What is the difference between development and production build?</t>
+  </si>
+  <si>
+    <t>Development builds are for local testing, while production builds are optimized and minified.</t>
+  </si>
+  <si>
+    <t>What is the role of npm in React setup?</t>
+  </si>
+  <si>
+    <t>It manages packages and is commonly used for installing and setting up React projects.</t>
+  </si>
+  <si>
+    <t>Can you learn React without installing it locally?</t>
+  </si>
+  <si>
+    <t>Yes, using online editors like StackBlitz, you can learn and practice React without local setup.</t>
+  </si>
+  <si>
+    <t>What is the benefit of using an online editor for React?</t>
+  </si>
+  <si>
+    <t>It works entirely in the browser, requires no installation, and lets you save code in the cloud.</t>
+  </si>
+  <si>
+    <t>Is there any limitation with React on online editors?</t>
+  </si>
+  <si>
+    <t>No major limitations; you can build complete React apps including components, state, and routing.</t>
+  </si>
+  <si>
+    <t>What online editor was demonstrated for React?</t>
+  </si>
+  <si>
+    <t>StackBlitz or similar editors were shown as alternatives to local setup.</t>
+  </si>
+  <si>
+    <t>Does the online editor support saving code?</t>
+  </si>
+  <si>
+    <t>Yes, it allows code saving via account login so you can resume work across systems.</t>
+  </si>
+  <si>
+    <t>Can you use React hooks like useState in online editors?</t>
+  </si>
+  <si>
+    <t>Yes, all React features including hooks work in the online editor.</t>
+  </si>
+  <si>
+    <t>How to create a new component in the online editor?</t>
+  </si>
+  <si>
+    <t>Create a new file, define a function component, and export it as default.</t>
+  </si>
+  <si>
+    <t>How to use the component in app.js?</t>
+  </si>
+  <si>
+    <t>Import the component and use it as a tag inside JSX.</t>
+  </si>
+  <si>
+    <t>How to implement state in the component?</t>
+  </si>
+  <si>
+    <t>Use the useState hook to declare state variables and update them with events.</t>
+  </si>
+  <si>
+    <t>What is a benefit of using an online editor on a slow system?</t>
+  </si>
+  <si>
+    <t>It reduces the load on your system and lets you code even on older machines.</t>
+  </si>
+  <si>
+    <t>Can you test interactivity like click events online?</t>
+  </si>
+  <si>
+    <t>Yes, you can add buttons, handle events, and see real-time output.</t>
+  </si>
+  <si>
+    <t>Is signup required to use the online editor?</t>
+  </si>
+  <si>
+    <t>No, but signing up allows you to save and access your work across devices.</t>
+  </si>
+  <si>
+    <t>How does hot reloading work in online editors?</t>
+  </si>
+  <si>
+    <t>Changes are reflected instantly without needing to refresh the browser.</t>
+  </si>
+  <si>
+    <t>What is the default structure of the online React setup?</t>
+  </si>
+  <si>
+    <t>It includes folders like public, src, components, and files like App.js and package.json.</t>
+  </si>
+  <si>
+    <t>Can you use this editor across multiple systems?</t>
+  </si>
+  <si>
+    <t>Yes, your code is cloud-saved and accessible from anywhere after login.</t>
+  </si>
+  <si>
+    <t>Which is the first file that executes in a React app?</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>What does index.html contain that is critical for React?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A root </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>&lt;div&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>&lt;script&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag loading main.js</t>
+    </r>
+  </si>
+  <si>
+    <t>What does main.js do in React?</t>
+  </si>
+  <si>
+    <t>It finds the root div and renders the App component inside it.</t>
+  </si>
+  <si>
+    <t>Where do we typically write our first React code?</t>
+  </si>
+  <si>
+    <t>Inside App.js</t>
+  </si>
+  <si>
+    <t>What is a React component?</t>
+  </si>
+  <si>
+    <t>A JavaScript function that returns JSX (HTML-like syntax).</t>
+  </si>
+  <si>
+    <t>Why should component names start with a capital letter?</t>
+  </si>
+  <si>
+    <t>To differentiate them from native HTML tags for React's rendering logic.</t>
+  </si>
+  <si>
+    <t>What happens if a component name starts with lowercase?</t>
+  </si>
+  <si>
+    <t>React may treat it as a native HTML tag and fail to render it properly.</t>
+  </si>
+  <si>
+    <t>JavaScript XML – a syntax extension that looks like HTML but is used in JavaScript.</t>
+  </si>
+  <si>
+    <t>What is required to return multiple JSX elements in a component?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They must be wrapped inside a parent tag like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>&lt;div&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>How to create a new component in React?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create a function, return JSX, and export it using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>export default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>How to import a custom component in another file?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>import ComponentName from "./ComponentName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> syntax.</t>
+    </r>
+  </si>
+  <si>
+    <t>Can we rename exported components during import?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, by using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>import CustomName from ...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you can rename it on import.</t>
+    </r>
+  </si>
+  <si>
+    <t>What is the key difference between a library and a framework?</t>
+  </si>
+  <si>
+    <t>Libraries let you control flow; frameworks control flow themselves.</t>
+  </si>
+  <si>
+    <t>Is React a library or framework?</t>
+  </si>
+  <si>
+    <t>React is a library.</t>
+  </si>
+  <si>
+    <t>What are .jsx and .tsx file extensions?</t>
+  </si>
+  <si>
+    <t>.jsx = JavaScript XML, .tsx = TypeScript XML.</t>
+  </si>
+  <si>
+    <t>What is the most important file in a React project created with Vite?</t>
+  </si>
+  <si>
+    <t>package.json</t>
+  </si>
+  <si>
+    <t>What happens if you delete package.json?</t>
+  </si>
+  <si>
+    <t>Your project won't run; it defines project dependencies and scripts.</t>
+  </si>
+  <si>
+    <t>What is the difference between dependencies and devDependencies?</t>
+  </si>
+  <si>
+    <t>Dependencies are needed to run the app; devDependencies are for development only.</t>
+  </si>
+  <si>
+    <t>Where are installed dependencies stored?</t>
+  </si>
+  <si>
+    <t>Inside the node_modules folder.</t>
+  </si>
+  <si>
+    <t>What is the purpose of package-lock.json?</t>
+  </si>
+  <si>
+    <t>It stores exact versions and nested dependencies to ensure consistent installs.</t>
+  </si>
+  <si>
+    <t>Do we manually edit package-lock.json?</t>
+  </si>
+  <si>
+    <t>No, it is updated automatically by npm.</t>
+  </si>
+  <si>
+    <t>What does README.md usually contain?</t>
+  </si>
+  <si>
+    <t>Documentation and project overview.</t>
+  </si>
+  <si>
+    <t>What is vite.config.js used for?</t>
+  </si>
+  <si>
+    <t>To configure Vite (e.g., ports, output directory, etc.).</t>
+  </si>
+  <si>
+    <t>What is .eslintrc.cjs used for?</t>
+  </si>
+  <si>
+    <t>For linting rules and ECMAScript settings.</t>
+  </si>
+  <si>
+    <t>Why is .gitignore important?</t>
+  </si>
+  <si>
+    <t>It excludes certain files (e.g., node_modules) from being pushed to Git.</t>
+  </si>
+  <si>
+    <t>Why don’t we push node_modules to Git?</t>
+  </si>
+  <si>
+    <t>It’s very large and can be reinstalled using npm install.</t>
+  </si>
+  <si>
+    <t>What command re-installs node_modules?</t>
+  </si>
+  <si>
+    <t>npm install</t>
+  </si>
+  <si>
+    <t>What is the role of index.html?</t>
+  </si>
+  <si>
+    <t>It is the browser entry point and loads main.js.</t>
+  </si>
+  <si>
+    <t>What does main.js do?</t>
+  </si>
+  <si>
+    <t>It renders the root React component (e.g., App) into the root div.</t>
+  </si>
+  <si>
+    <t>Where should you write your custom components?</t>
+  </si>
+  <si>
+    <t>Inside the src folder.</t>
+  </si>
+  <si>
+    <t>What is the difference between public and assets folders?</t>
+  </si>
+  <si>
+    <t>Public files are directly accessible via the browser; assets are private and optimized by the build.</t>
+  </si>
+  <si>
+    <t>Why is it important to use capital letters for component names?</t>
+  </si>
+  <si>
+    <t>React distinguishes components from HTML tags using capitalization.</t>
+  </si>
+  <si>
+    <t>Why is the src folder preferred for code?</t>
+  </si>
+  <si>
+    <t>It separates actual source code from config and build-related files.</t>
+  </si>
+  <si>
+    <t>What does the node_modules folder contain?</t>
+  </si>
+  <si>
+    <t>All installed packages and their dependencies.</t>
+  </si>
+  <si>
+    <t>What is a component in React?</t>
+  </si>
+  <si>
+    <t>A reusable unit of UI in a React application.</t>
+  </si>
+  <si>
+    <t>Why are components important in React?</t>
+  </si>
+  <si>
+    <t>They help break the UI into independent, reusable pieces and make code more manageable.</t>
+  </si>
+  <si>
+    <t>Can components be nested inside other components?</t>
+  </si>
+  <si>
+    <t>Yes, components can include and render other components inside them.</t>
+  </si>
+  <si>
+    <t>What is a root component?</t>
+  </si>
+  <si>
+    <t>The main component rendered inside index.html, usually App.js.</t>
+  </si>
+  <si>
+    <t>React uses capitalization to distinguish between components and HTML tags.</t>
+  </si>
+  <si>
+    <t>How do you define a basic functional component in React?</t>
+  </si>
+  <si>
+    <t>By using a function that returns JSX.</t>
+  </si>
+  <si>
+    <t>What is the difference between a component and a regular function?</t>
+  </si>
+  <si>
+    <t>A component returns JSX and is used in UI; a function typically returns data and is invoked directly.</t>
+  </si>
+  <si>
+    <t>JavaScript XML – syntax that allows writing HTML-like code in JavaScript.</t>
+  </si>
+  <si>
+    <t>How can you include a component inside another?</t>
+  </si>
+  <si>
+    <t>Import it and use it as a self-closing tag or regular tag in JSX.</t>
+  </si>
+  <si>
+    <t>What are the types of components in React?</t>
+  </si>
+  <si>
+    <t>Functional Components (mostly used now) and Class Components (older style).</t>
+  </si>
+  <si>
+    <t>What is a High-Order Component (HOC)?</t>
+  </si>
+  <si>
+    <t>A function that takes a component and returns a new component.</t>
+  </si>
+  <si>
+    <t>What are Controlled and Uncontrolled Components?</t>
+  </si>
+  <si>
+    <t>Controlled components are managed by React state; uncontrolled use refs to access values directly.</t>
+  </si>
+  <si>
+    <t>How to return multiple elements in a React component?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wrap them inside a single parent tag like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>&lt;div&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or use React Fragments.</t>
+    </r>
+  </si>
+  <si>
+    <t>Can components contain JavaScript code?</t>
+  </si>
+  <si>
+    <t>Yes, you can use JS logic inside components, especially before the return statement.</t>
+  </si>
+  <si>
+    <t>How do you export a component?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>export default ComponentName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or named exports.</t>
+    </r>
+  </si>
+  <si>
+    <t>What are the three parameters in React.createElement()?</t>
+  </si>
+  <si>
+    <t>Why is it recommended to use JSX instead of plain JavaScript?</t>
+  </si>
+  <si>
+    <t>What was the JSX task given in the previous part?</t>
+  </si>
+  <si>
+    <t>To convert a static HTML+JS snippet (heading, image, task list, and button with alert) into a JSX-based React component.</t>
+  </si>
+  <si>
+    <t>What is the first step to start the task?</t>
+  </si>
+  <si>
+    <t>Create a new file, e.g., `Todo.jsx`, in your React project.</t>
+  </si>
+  <si>
+    <t>How do we define the component?</t>
+  </si>
+  <si>
+    <t>Use a function component: `function Todo() { return (...) }`.</t>
+  </si>
+  <si>
+    <t>What HTML structure do we include in the JSX?</t>
+  </si>
+  <si>
+    <t>Add heading (`&lt;h1&gt;`), image (`&lt;img&gt;`), task list (`&lt;ul&gt;` with `&lt;li&gt;`), and a button inside a `&lt;div&gt;`.</t>
+  </si>
+  <si>
+    <t>How do we handle button click in JSX?</t>
+  </si>
+  <si>
+    <t>Create a function (e.g., `handleClick`) and bind it to the button using `onClick={handleClick}`.</t>
+  </si>
+  <si>
+    <t>How to export the component?</t>
+  </si>
+  <si>
+    <t>Use `export default Todo` at the bottom of the file.</t>
+  </si>
+  <si>
+    <t>How to import and use the component in App.jsx?</t>
+  </si>
+  <si>
+    <t>Use `import Todo from './Todo'` and render it as `&lt;Todo /&gt;` in the return block.</t>
+  </si>
+  <si>
+    <t>What to check if the alert isn't working?</t>
+  </si>
+  <si>
+    <t>Ensure the onClick is written in JSX syntax: `onClick={handleClick}`, not HTML-style like `onclick="handleClick()"`.</t>
+  </si>
+  <si>
+    <t>What is the final output expected?</t>
+  </si>
+  <si>
+    <t>The UI should display heading, image, 3 tasks, and a working alert when the button is clicked.</t>
+  </si>
+  <si>
+    <t>Why is this JSX practice useful?</t>
+  </si>
+  <si>
+    <t>It teaches you how to transform raw HTML+JS code into reusable, modular JSX-based components in React.</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Back</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,10 +1002,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.6"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,7 +1015,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -151,25 +1023,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -452,140 +1312,1199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30">
+      <c r="A33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30">
+      <c r="A41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30">
+      <c r="A52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30">
+      <c r="A53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
+      <c r="B54" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30">
+      <c r="A55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30">
+      <c r="A56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30">
+      <c r="A57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30">
+      <c r="A58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30">
+      <c r="A59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30">
+      <c r="A62" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30">
+      <c r="A63" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30">
+      <c r="A65" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30">
+      <c r="A66" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30">
+      <c r="A72" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30">
+      <c r="A73" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30">
+      <c r="A76" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30">
+      <c r="A77" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30">
+      <c r="A78" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30">
+      <c r="A79" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30">
+      <c r="A80" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30">
+      <c r="A84" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30">
+      <c r="A85" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30">
+      <c r="A87" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30">
+      <c r="A88" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="30">
+      <c r="A89" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="30">
+      <c r="A91" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30">
+      <c r="A92" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30">
+      <c r="A93" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="30">
+      <c r="A94" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="30">
+      <c r="A95" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30">
+      <c r="A96" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>38</v>
+      </c>
+      <c r="B105" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>42</v>
+      </c>
+      <c r="B110" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>50</v>
+      </c>
+      <c r="B114" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>54</v>
+      </c>
+      <c r="B116" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>56</v>
+      </c>
+      <c r="B117" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>58</v>
+      </c>
+      <c r="B118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>40</v>
+      </c>
+      <c r="B123" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>42</v>
+      </c>
+      <c r="B124" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>44</v>
+      </c>
+      <c r="B125" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>46</v>
+      </c>
+      <c r="B126" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>48</v>
+      </c>
+      <c r="B127" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>50</v>
+      </c>
+      <c r="B128" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>244</v>
+      </c>
+      <c r="B129" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>54</v>
+      </c>
+      <c r="B130" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>245</v>
+      </c>
+      <c r="B131" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>58</v>
+      </c>
+      <c r="B132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>246</v>
+      </c>
+      <c r="B135" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>248</v>
+      </c>
+      <c r="B136" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>250</v>
+      </c>
+      <c r="B137" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>252</v>
+      </c>
+      <c r="B138" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>254</v>
+      </c>
+      <c r="B139" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>256</v>
+      </c>
+      <c r="B140" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>258</v>
+      </c>
+      <c r="B141" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>260</v>
+      </c>
+      <c r="B142" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>262</v>
+      </c>
+      <c r="B143" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>264</v>
+      </c>
+      <c r="B144" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>